--- a/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-dallas\Process_Automation\Dept\RPA\GitHub Repos\UiPath\Automation Directory\Luxottica\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0007F8D-D834-41B5-A9B3-7B12BC57C064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -119,21 +120,6 @@
     <t>strHistoryPath</t>
   </si>
   <si>
-    <t>ALL_ComponentRoot</t>
-  </si>
-  <si>
-    <t>strProcessRoot</t>
-  </si>
-  <si>
-    <t>ALL_ProcessRoot</t>
-  </si>
-  <si>
-    <t>strSubProcessRoot</t>
-  </si>
-  <si>
-    <t>ALL_SubProcessRoot</t>
-  </si>
-  <si>
     <t>strComponentRoot</t>
   </si>
   <si>
@@ -218,25 +204,28 @@
     <t>LUX-01_VendorOpenItemsReport_SAP_Report</t>
   </si>
   <si>
-    <t>LUX-01_StrCopyFromPathTemplate</t>
-  </si>
-  <si>
-    <t>LUX-01_StrCopyFromNameTemplate</t>
-  </si>
-  <si>
-    <t>LUX-01_StrCopyToPathTemplate</t>
-  </si>
-  <si>
-    <t>LUX-01_StrCopyToNameTemplate</t>
-  </si>
-  <si>
-    <t>LUX-01_StrHistoryPath</t>
+    <t>C:\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyFromPathTemplate</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyFromNameTemplate</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyToPathTemplate</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyToNameTemplate</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrHistoryPath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -611,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -665,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -687,21 +676,28 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1698,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1761,35 +1757,35 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5">
         <v>800</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>10000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>15000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1815,35 +1811,35 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5">
         <v>800</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5">
         <v>15000</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5">
         <v>60000</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1853,35 +1849,35 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>0.6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5">
         <v>0.8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5">
         <v>0.9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -1897,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1919,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1930,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1941,7 +1937,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2916,11 +2912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2972,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -2980,7 +2976,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -2988,7 +2984,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -2996,7 +2992,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -3004,32 +3000,20 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0007F8D-D834-41B5-A9B3-7B12BC57C064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D91073-6786-4D0B-ACA9-8651C3B9B692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Ess.LUX-01_StrHistoryPath</t>
+  </si>
+  <si>
+    <t>strOutputFolderPath</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrOutputFolderPath</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2916,7 +2922,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3004,8 +3010,12 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B181BD53-F641-4518-9CFB-CF92E1390262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850B1AF9-7FB3-4C7C-813A-30B5F6723540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -177,10 +177,16 @@
     <t>strVlookupsFileRoot</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Edit Vendor Open Items Summary\Data\Input</t>
+    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\Input</t>
+  </si>
+  <si>
+    <t>C:\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_ReportsSheetToMerge</t>
+  </si>
+  <si>
+    <t>strReportsSheetToMerge</t>
   </si>
 </sst>
 </file>
@@ -539,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,7 +621,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +629,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2880,7 +2888,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850B1AF9-7FB3-4C7C-813A-30B5F6723540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667DF1B-3BAB-4F6B-8D47-611B42C39668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>strReportsSheetToMerge</t>
+  </si>
+  <si>
+    <t>strFormula</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_Formula</t>
   </si>
 </sst>
 </file>
@@ -226,9 +232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +553,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2852,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2903,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Edit Vendor Open Items Summary/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667DF1B-3BAB-4F6B-8D47-611B42C39668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6C98E-0AC0-4A9F-8DA1-F832A66EEB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -177,12 +177,6 @@
     <t>strVlookupsFileRoot</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\Input</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>Ess.LUX-01_ReportsSheetToMerge</t>
   </si>
   <si>
@@ -193,13 +187,19 @@
   </si>
   <si>
     <t>Ess.LUX-01_Formula</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Edit Vendor Open Items Summary\Data\Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,6 +209,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -229,15 +235,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,16 +636,16 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1629,6 +1638,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{E34BD9F2-AF93-4BEF-B478-FC5C1A6E837C}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{24FB335C-4884-4E8C-B36B-DCCC5781D760}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2851,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2897,18 +2910,18 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
